--- a/Rainfall Data Sets/Clean_Rainfall_By_State.xlsx
+++ b/Rainfall Data Sets/Clean_Rainfall_By_State.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franz/Desktop/Data Visualisation 2/Rainfall Data Sets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{051F9A8E-E34C-084D-9F29-A2F189E19EA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65EA4CD8-00EF-AE41-8C5C-59F751DB1F1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21040" yWindow="5160" windowWidth="27500" windowHeight="18220" xr2:uid="{F293E0A7-5C67-3D4D-B8CF-2550A95850C8}"/>
   </bookViews>
@@ -44,28 +44,28 @@
     <t>Average Precipitation (millimetres)</t>
   </si>
   <si>
-    <t>South Australia (Adelaide)</t>
-  </si>
-  <si>
-    <t>Queensland (Brisbane)</t>
-  </si>
-  <si>
-    <t>ACT (Canberra)</t>
-  </si>
-  <si>
-    <t>Northern Territory (Darwin)</t>
-  </si>
-  <si>
-    <t>Tasmania (Hobart)</t>
-  </si>
-  <si>
-    <t>Victoria (Melbourne)</t>
-  </si>
-  <si>
-    <t>Western Australia (Perth)</t>
-  </si>
-  <si>
-    <t>New South Wales (Sydney)</t>
+    <t>South Australia</t>
+  </si>
+  <si>
+    <t>Queensland</t>
+  </si>
+  <si>
+    <t>Australian Capital Territory</t>
+  </si>
+  <si>
+    <t>Northern Territory</t>
+  </si>
+  <si>
+    <t>Tasmania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Victoria </t>
+  </si>
+  <si>
+    <t>Western Australia</t>
+  </si>
+  <si>
+    <t>New South Wales</t>
   </si>
 </sst>
 </file>
@@ -469,7 +469,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Rainfall Data Sets/Clean_Rainfall_By_State.xlsx
+++ b/Rainfall Data Sets/Clean_Rainfall_By_State.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franz/Desktop/Data Visualisation 2/Rainfall Data Sets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65EA4CD8-00EF-AE41-8C5C-59F751DB1F1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA01957A-6E66-394F-A6FC-89965023B3EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21040" yWindow="5160" windowWidth="27500" windowHeight="18220" xr2:uid="{F293E0A7-5C67-3D4D-B8CF-2550A95850C8}"/>
+    <workbookView xWindow="7960" yWindow="4460" windowWidth="27500" windowHeight="18220" xr2:uid="{F293E0A7-5C67-3D4D-B8CF-2550A95850C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,12 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>Average Precipitation (millimetres)</t>
-  </si>
-  <si>
     <t>South Australia</t>
   </si>
   <si>
@@ -66,6 +60,12 @@
   </si>
   <si>
     <t>New South Wales</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>rain_mm</t>
   </si>
 </sst>
 </file>
@@ -469,7 +469,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -480,15 +480,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>532.42727272727291</v>
@@ -496,7 +496,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2">
         <v>993.078125</v>
@@ -504,7 +504,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2">
         <v>608.69444439999995</v>
@@ -512,7 +512,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" s="3">
         <v>1722.9823530000001</v>
@@ -520,7 +520,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6" s="3">
         <v>609.71111110000004</v>
@@ -528,7 +528,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7" s="3">
         <v>643.64347829999997</v>
@@ -536,7 +536,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8" s="3">
         <v>750.66097560000003</v>
@@ -544,7 +544,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9" s="3">
         <v>1206.5333330000001</v>
